--- a/tes.xlsx
+++ b/tes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>no_run</t>
   </si>
@@ -47,37 +47,37 @@
   {
     "order_id": 1,
     "ticket_id": 1,
-    "ordered_by": "viverra",
-    "created_at": "2025-01-08T07:50:07.338047+07:00",
-    "updated_at": "2025-01-08T07:50:07.338047+07:00"
+    "ordered_by": "dolor",
+    "created_at": "2025-01-08T08:38:15.748419+07:00",
+    "updated_at": "2025-01-08T08:38:15.748419+07:00"
   },
   {
     "order_id": 2,
     "ticket_id": 1,
-    "ordered_by": "tincidunt",
-    "created_at": "2025-01-08T07:50:07.344824+07:00",
-    "updated_at": "2025-01-08T07:50:07.344824+07:00"
+    "ordered_by": "tortor",
+    "created_at": "2025-01-08T08:38:15.753982+07:00",
+    "updated_at": "2025-01-08T08:38:15.753982+07:00"
   },
   {
     "order_id": 3,
     "ticket_id": 1,
-    "ordered_by": "viverra",
-    "created_at": "2025-01-08T07:50:07.352211+07:00",
-    "updated_at": "2025-01-08T07:50:07.352211+07:00"
+    "ordered_by": "vel",
+    "created_at": "2025-01-08T08:38:15.759447+07:00",
+    "updated_at": "2025-01-08T08:38:15.759447+07:00"
   },
   {
     "order_id": 4,
     "ticket_id": 1,
-    "ordered_by": "eget",
-    "created_at": "2025-01-08T07:50:07.357165+07:00",
-    "updated_at": "2025-01-08T07:50:07.357165+07:00"
+    "ordered_by": "Quisque",
+    "created_at": "2025-01-08T08:38:15.775716+07:00",
+    "updated_at": "2025-01-08T08:38:15.775716+07:00"
   },
   {
     "order_id": 5,
     "ticket_id": 1,
-    "ordered_by": "libero",
-    "created_at": "2025-01-08T07:50:07.363157+07:00",
-    "updated_at": "2025-01-08T07:50:07.363157+07:00"
+    "ordered_by": "Sed",
+    "created_at": "2025-01-08T08:38:15.783507+07:00",
+    "updated_at": "2025-01-08T08:38:15.783507+07:00"
   }
 ]</t>
   </si>
@@ -86,37 +86,37 @@
   {
     "order_id": 1,
     "ticket_id": 1,
-    "ordered_by": "sed",
-    "created_at": "2025-01-08T07:50:08.784064+07:00",
-    "updated_at": "2025-01-08T07:50:08.784064+07:00"
+    "ordered_by": "tincidunt",
+    "created_at": "2025-01-08T08:38:17.212103+07:00",
+    "updated_at": "2025-01-08T08:38:17.212103+07:00"
   },
   {
     "order_id": 2,
     "ticket_id": 1,
+    "ordered_by": "aliquet",
+    "created_at": "2025-01-08T08:38:17.245437+07:00",
+    "updated_at": "2025-01-08T08:38:17.245437+07:00"
+  },
+  {
+    "order_id": 3,
+    "ticket_id": 1,
     "ordered_by": "ipsum",
-    "created_at": "2025-01-08T07:50:08.824559+07:00",
-    "updated_at": "2025-01-08T07:50:08.824559+07:00"
-  },
-  {
-    "order_id": 3,
-    "ticket_id": 1,
-    "ordered_by": "Sed",
-    "created_at": "2025-01-08T07:50:08.831773+07:00",
-    "updated_at": "2025-01-08T07:50:08.831773+07:00"
+    "created_at": "2025-01-08T08:38:17.27799+07:00",
+    "updated_at": "2025-01-08T08:38:17.27799+07:00"
   },
   {
     "order_id": 4,
     "ticket_id": 1,
+    "ordered_by": "aliquet",
+    "created_at": "2025-01-08T08:38:17.316505+07:00",
+    "updated_at": "2025-01-08T08:38:17.316505+07:00"
+  },
+  {
+    "order_id": 5,
+    "ticket_id": 1,
     "ordered_by": "Praesent",
-    "created_at": "2025-01-08T07:50:08.837419+07:00",
-    "updated_at": "2025-01-08T07:50:08.837419+07:00"
-  },
-  {
-    "order_id": 5,
-    "ticket_id": 1,
-    "ordered_by": "dolor",
-    "created_at": "2025-01-08T07:50:08.897563+07:00",
-    "updated_at": "2025-01-08T07:50:08.897563+07:00"
+    "created_at": "2025-01-08T08:38:17.324501+07:00",
+    "updated_at": "2025-01-08T08:38:17.324501+07:00"
   }
 ]</t>
   </si>
@@ -125,37 +125,37 @@
   {
     "order_id": 1,
     "ticket_id": 1,
-    "ordered_by": "at",
-    "created_at": "2025-01-08T07:50:10.243415+07:00",
-    "updated_at": "2025-01-08T07:50:10.243415+07:00"
+    "ordered_by": "maximus",
+    "created_at": "2025-01-08T08:38:18.661547+07:00",
+    "updated_at": "2025-01-08T08:38:18.661547+07:00"
   },
   {
     "order_id": 2,
     "ticket_id": 1,
-    "ordered_by": "aliquet",
-    "created_at": "2025-01-08T07:50:10.254071+07:00",
-    "updated_at": "2025-01-08T07:50:10.254071+07:00"
+    "ordered_by": "senectus",
+    "created_at": "2025-01-08T08:38:18.666052+07:00",
+    "updated_at": "2025-01-08T08:38:18.666052+07:00"
   },
   {
     "order_id": 3,
     "ticket_id": 1,
-    "ordered_by": "vulputate",
-    "created_at": "2025-01-08T07:50:10.271051+07:00",
-    "updated_at": "2025-01-08T07:50:10.271051+07:00"
+    "ordered_by": "pharetra",
+    "created_at": "2025-01-08T08:38:18.673934+07:00",
+    "updated_at": "2025-01-08T08:38:18.673934+07:00"
   },
   {
     "order_id": 4,
     "ticket_id": 1,
-    "ordered_by": "a",
-    "created_at": "2025-01-08T07:50:10.299849+07:00",
-    "updated_at": "2025-01-08T07:50:10.299849+07:00"
+    "ordered_by": "purus",
+    "created_at": "2025-01-08T08:38:18.731288+07:00",
+    "updated_at": "2025-01-08T08:38:18.731288+07:00"
   },
   {
     "order_id": 5,
     "ticket_id": 1,
-    "ordered_by": "vulputate",
-    "created_at": "2025-01-08T07:50:10.316282+07:00",
-    "updated_at": "2025-01-08T07:50:10.316282+07:00"
+    "ordered_by": "dolor",
+    "created_at": "2025-01-08T08:38:18.737876+07:00",
+    "updated_at": "2025-01-08T08:38:18.737876+07:00"
   }
 ]</t>
   </si>
@@ -164,37 +164,37 @@
   {
     "order_id": 1,
     "ticket_id": 1,
-    "ordered_by": "sem",
-    "created_at": "2025-01-08T07:50:11.684931+07:00",
-    "updated_at": "2025-01-08T07:50:11.684931+07:00"
+    "ordered_by": "ultricies",
+    "created_at": "2025-01-08T08:38:20.138583+07:00",
+    "updated_at": "2025-01-08T08:38:20.138583+07:00"
   },
   {
     "order_id": 2,
     "ticket_id": 1,
-    "ordered_by": "et",
-    "created_at": "2025-01-08T07:50:11.689273+07:00",
-    "updated_at": "2025-01-08T07:50:11.689273+07:00"
+    "ordered_by": "sapien",
+    "created_at": "2025-01-08T08:38:20.143149+07:00",
+    "updated_at": "2025-01-08T08:38:20.143149+07:00"
   },
   {
     "order_id": 3,
     "ticket_id": 1,
-    "ordered_by": "egestas",
-    "created_at": "2025-01-08T07:50:11.693218+07:00",
-    "updated_at": "2025-01-08T07:50:11.693218+07:00"
+    "ordered_by": "tristique",
+    "created_at": "2025-01-08T08:38:20.166133+07:00",
+    "updated_at": "2025-01-08T08:38:20.166133+07:00"
   },
   {
     "order_id": 4,
     "ticket_id": 1,
-    "ordered_by": "sodales",
-    "created_at": "2025-01-08T07:50:11.696699+07:00",
-    "updated_at": "2025-01-08T07:50:11.696699+07:00"
+    "ordered_by": "eros",
+    "created_at": "2025-01-08T08:38:20.173274+07:00",
+    "updated_at": "2025-01-08T08:38:20.173274+07:00"
   },
   {
     "order_id": 5,
     "ticket_id": 1,
-    "ordered_by": "Fusce",
-    "created_at": "2025-01-08T07:50:11.775339+07:00",
-    "updated_at": "2025-01-08T07:50:11.775339+07:00"
+    "ordered_by": "cursus",
+    "created_at": "2025-01-08T08:38:20.186531+07:00",
+    "updated_at": "2025-01-08T08:38:20.186531+07:00"
   }
 ]</t>
   </si>
@@ -203,37 +203,232 @@
   {
     "order_id": 1,
     "ticket_id": 1,
+    "ordered_by": "volutpat",
+    "created_at": "2025-01-08T08:38:21.581153+07:00",
+    "updated_at": "2025-01-08T08:38:21.581153+07:00"
+  },
+  {
+    "order_id": 2,
+    "ticket_id": 1,
+    "ordered_by": "in",
+    "created_at": "2025-01-08T08:38:21.585092+07:00",
+    "updated_at": "2025-01-08T08:38:21.585092+07:00"
+  },
+  {
+    "order_id": 3,
+    "ticket_id": 1,
+    "ordered_by": "venenatis",
+    "created_at": "2025-01-08T08:38:21.617882+07:00",
+    "updated_at": "2025-01-08T08:38:21.617882+07:00"
+  },
+  {
+    "order_id": 4,
+    "ticket_id": 1,
+    "ordered_by": "tincidunt",
+    "created_at": "2025-01-08T08:38:21.624598+07:00",
+    "updated_at": "2025-01-08T08:38:21.624598+07:00"
+  },
+  {
+    "order_id": 5,
+    "ticket_id": 1,
+    "ordered_by": "et",
+    "created_at": "2025-01-08T08:38:21.632681+07:00",
+    "updated_at": "2025-01-08T08:38:21.632681+07:00"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "order_id": 1,
+    "ticket_id": 1,
+    "ordered_by": "libero",
+    "created_at": "2025-01-08T08:56:08.736697+07:00",
+    "updated_at": "2025-01-08T08:56:08.736697+07:00"
+  },
+  {
+    "order_id": 2,
+    "ticket_id": 1,
+    "ordered_by": "justo",
+    "created_at": "2025-01-08T08:56:08.741257+07:00",
+    "updated_at": "2025-01-08T08:56:08.741257+07:00"
+  },
+  {
+    "order_id": 3,
+    "ticket_id": 1,
+    "ordered_by": "scelerisque",
+    "created_at": "2025-01-08T08:56:08.746597+07:00",
+    "updated_at": "2025-01-08T08:56:08.746597+07:00"
+  },
+  {
+    "order_id": 4,
+    "ticket_id": 1,
+    "ordered_by": "bibendum",
+    "created_at": "2025-01-08T08:56:08.768488+07:00",
+    "updated_at": "2025-01-08T08:56:08.768488+07:00"
+  },
+  {
+    "order_id": 5,
+    "ticket_id": 1,
+    "ordered_by": "egestas",
+    "created_at": "2025-01-08T08:56:08.776493+07:00",
+    "updated_at": "2025-01-08T08:56:08.776493+07:00"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "order_id": 1,
+    "ticket_id": 1,
+    "ordered_by": "quis",
+    "created_at": "2025-01-08T08:56:10.286422+07:00",
+    "updated_at": "2025-01-08T08:56:10.286422+07:00"
+  },
+  {
+    "order_id": 2,
+    "ticket_id": 1,
+    "ordered_by": "bibendum",
+    "created_at": "2025-01-08T08:56:10.29047+07:00",
+    "updated_at": "2025-01-08T08:56:10.29047+07:00"
+  },
+  {
+    "order_id": 3,
+    "ticket_id": 1,
+    "ordered_by": "nisl",
+    "created_at": "2025-01-08T08:56:10.297551+07:00",
+    "updated_at": "2025-01-08T08:56:10.297551+07:00"
+  },
+  {
+    "order_id": 4,
+    "ticket_id": 1,
+    "ordered_by": "cursus",
+    "created_at": "2025-01-08T08:56:10.316622+07:00",
+    "updated_at": "2025-01-08T08:56:10.316622+07:00"
+  },
+  {
+    "order_id": 5,
+    "ticket_id": 1,
+    "ordered_by": "vehicula",
+    "created_at": "2025-01-08T08:56:10.330341+07:00",
+    "updated_at": "2025-01-08T08:56:10.330341+07:00"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "order_id": 1,
+    "ticket_id": 1,
+    "ordered_by": "Nullam",
+    "created_at": "2025-01-08T08:56:11.718622+07:00",
+    "updated_at": "2025-01-08T08:56:11.718622+07:00"
+  },
+  {
+    "order_id": 2,
+    "ticket_id": 1,
+    "ordered_by": "malesuada",
+    "created_at": "2025-01-08T08:56:11.736344+07:00",
+    "updated_at": "2025-01-08T08:56:11.736344+07:00"
+  },
+  {
+    "order_id": 3,
+    "ticket_id": 1,
+    "ordered_by": "Donec",
+    "created_at": "2025-01-08T08:56:11.747889+07:00",
+    "updated_at": "2025-01-08T08:56:11.747889+07:00"
+  },
+  {
+    "order_id": 4,
+    "ticket_id": 1,
+    "ordered_by": "auctor",
+    "created_at": "2025-01-08T08:56:11.764763+07:00",
+    "updated_at": "2025-01-08T08:56:11.764763+07:00"
+  },
+  {
+    "order_id": 5,
+    "ticket_id": 1,
+    "ordered_by": "purus",
+    "created_at": "2025-01-08T08:56:11.769003+07:00",
+    "updated_at": "2025-01-08T08:56:11.769003+07:00"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "order_id": 1,
+    "ticket_id": 1,
+    "ordered_by": "gravida",
+    "created_at": "2025-01-08T08:56:13.160947+07:00",
+    "updated_at": "2025-01-08T08:56:13.160947+07:00"
+  },
+  {
+    "order_id": 2,
+    "ticket_id": 1,
+    "ordered_by": "justo",
+    "created_at": "2025-01-08T08:56:13.168865+07:00",
+    "updated_at": "2025-01-08T08:56:13.168865+07:00"
+  },
+  {
+    "order_id": 3,
+    "ticket_id": 1,
+    "ordered_by": "sapien",
+    "created_at": "2025-01-08T08:56:13.173505+07:00",
+    "updated_at": "2025-01-08T08:56:13.173505+07:00"
+  },
+  {
+    "order_id": 4,
+    "ticket_id": 1,
+    "ordered_by": "aliquet",
+    "created_at": "2025-01-08T08:56:13.249024+07:00",
+    "updated_at": "2025-01-08T08:56:13.249024+07:00"
+  },
+  {
+    "order_id": 5,
+    "ticket_id": 1,
+    "ordered_by": "ac",
+    "created_at": "2025-01-08T08:56:13.26368+07:00",
+    "updated_at": "2025-01-08T08:56:13.26368+07:00"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "order_id": 1,
+    "ticket_id": 1,
+    "ordered_by": "vehicula",
+    "created_at": "2025-01-08T08:56:14.686834+07:00",
+    "updated_at": "2025-01-08T08:56:14.686834+07:00"
+  },
+  {
+    "order_id": 2,
+    "ticket_id": 1,
     "ordered_by": "tortor",
-    "created_at": "2025-01-08T07:50:13.151356+07:00",
-    "updated_at": "2025-01-08T07:50:13.151356+07:00"
-  },
-  {
-    "order_id": 2,
-    "ticket_id": 1,
-    "ordered_by": "dictum",
-    "created_at": "2025-01-08T07:50:13.159697+07:00",
-    "updated_at": "2025-01-08T07:50:13.159697+07:00"
+    "created_at": "2025-01-08T08:56:14.692648+07:00",
+    "updated_at": "2025-01-08T08:56:14.692648+07:00"
   },
   {
     "order_id": 3,
     "ticket_id": 1,
-    "ordered_by": "vehicula",
-    "created_at": "2025-01-08T07:50:13.165637+07:00",
-    "updated_at": "2025-01-08T07:50:13.165637+07:00"
+    "ordered_by": "tincidunt",
+    "created_at": "2025-01-08T08:56:14.69676+07:00",
+    "updated_at": "2025-01-08T08:56:14.69676+07:00"
   },
   {
     "order_id": 4,
     "ticket_id": 1,
-    "ordered_by": "Ut",
-    "created_at": "2025-01-08T07:50:13.171202+07:00",
-    "updated_at": "2025-01-08T07:50:13.171202+07:00"
+    "ordered_by": "consectetur",
+    "created_at": "2025-01-08T08:56:14.724765+07:00",
+    "updated_at": "2025-01-08T08:56:14.724765+07:00"
   },
   {
     "order_id": 5,
     "ticket_id": 1,
-    "ordered_by": "vel",
-    "created_at": "2025-01-08T07:50:13.202487+07:00",
-    "updated_at": "2025-01-08T07:50:13.202487+07:00"
+    "ordered_by": "cursus",
+    "created_at": "2025-01-08T08:56:14.733885+07:00",
+    "updated_at": "2025-01-08T08:56:14.733885+07:00"
   }
 ]</t>
   </si>
@@ -588,13 +783,13 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>0.4261533</v>
+        <v>0.4357267</v>
       </c>
       <c r="G2">
-        <v>234.657340445328</v>
+        <v>229.50165780522514</v>
       </c>
       <c r="H2">
-        <v>0.0410155</v>
+        <v>0.042543903</v>
       </c>
     </row>
     <row r="3">
@@ -614,13 +809,13 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>0.4270312</v>
+        <v>0.4277444</v>
       </c>
       <c r="G3">
-        <v>234.17492679691787</v>
+        <v>233.78447502760994</v>
       </c>
       <c r="H3">
-        <v>0.041580879</v>
+        <v>0.041937689</v>
       </c>
     </row>
     <row r="4">
@@ -640,13 +835,13 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>0.3988828</v>
+        <v>0.4413008</v>
       </c>
       <c r="G4">
-        <v>250.70020567444874</v>
+        <v>226.60280697429056</v>
       </c>
       <c r="H4">
-        <v>0.038577414</v>
+        <v>0.04309605</v>
       </c>
     </row>
     <row r="5">
@@ -666,13 +861,13 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>0.4299446</v>
+        <v>0.4071429</v>
       </c>
       <c r="G5">
-        <v>232.58810553731806</v>
+        <v>245.61400923361307</v>
       </c>
       <c r="H5">
-        <v>0.042047569</v>
+        <v>0.039814409</v>
       </c>
     </row>
     <row r="6">
@@ -692,13 +887,143 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>0.3992425</v>
+        <v>0.435363</v>
       </c>
       <c r="G6">
-        <v>250.47433577337083</v>
+        <v>229.69338230396244</v>
       </c>
       <c r="H6">
-        <v>0.03858379</v>
+        <v>0.042276624</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>0.4989526</v>
+      </c>
+      <c r="G7">
+        <v>200.41983947974217</v>
+      </c>
+      <c r="H7">
+        <v>0.048456914</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>0.4093909</v>
+      </c>
+      <c r="G8">
+        <v>244.26532196978488</v>
+      </c>
+      <c r="H8">
+        <v>0.040088249</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>0.4051541</v>
+      </c>
+      <c r="G9">
+        <v>246.81966688724117</v>
+      </c>
+      <c r="H9">
+        <v>0.039319971</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>0.4779311</v>
+      </c>
+      <c r="G10">
+        <v>209.23518055217582</v>
+      </c>
+      <c r="H10">
+        <v>0.046925197</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>0.4199563</v>
+      </c>
+      <c r="G11">
+        <v>238.1200139157336</v>
+      </c>
+      <c r="H11">
+        <v>0.041233266</v>
       </c>
     </row>
   </sheetData>
